--- a/pred_ohlcv/54_21/2019-11-21 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 FAB ohlcv.xlsx
@@ -3902,7 +3902,7 @@
         <v>4797888.955337598</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4388938.01686387</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>3750655.053063868</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3813211.673563868</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>3914604.015463868</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3773651.693763867</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>3803697.246763867</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2564659.583063867</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2564860.583063867</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>8142508.552728542</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>6294547.907808051</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>8208933.812263981</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>9279756.510575457</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>9279756.510575457</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>9249808.409815004</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>8356050.164887886</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>9127535.292387886</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>9804835.734984525</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>9804835.734984525</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>9306874.590442151</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>9002805.878495142</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>9062036.234149843</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>9334357.899366328</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>8391217.806711156</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>8686833.688755983</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>8686789.688755983</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>7755360.030355983</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>7755360.030355983</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6866198.994455984</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6655756.81987027</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>7846716.976314962</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>6414838.302216738</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>2688828.013942532</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>3018611.86267646</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-3869560.723616656</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-3592817.467916656</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3571476.784382191</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-3900297.395782748</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-4143160.153571523</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-3848723.893871523</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-3996025.523771523</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-3751876.127488332</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-4231201.041988332</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-5401216.901788332</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-2644741.469351697</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-2644741.469351697</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-2558081.082951697</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-2783154.022551697</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-3053495.094651697</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-3045876.674851697</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-2855718.840151697</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-2275267.874951697</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-2070776.749329825</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-2115142.843829826</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1973337.131229826</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1510107.244793726</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-1917811.074329826</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-1923299.074329826</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-1923299.074329826</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1401022.835329825</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-1342298.356829825</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 FAB ohlcv.xlsx
@@ -3902,7 +3902,7 @@
         <v>4797888.955337598</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4388938.01686387</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>3750655.053063868</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3813211.673563868</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>3914604.015463868</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3773651.693763867</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>3803697.246763867</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2564659.583063867</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2564860.583063867</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2256560.425363868</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>8208933.812263981</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>9279756.510575457</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>9279756.510575457</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>9249808.409815004</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>8356050.164887886</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>9127535.292387886</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>9804835.734984525</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>9804835.734984525</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>9306874.590442151</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>9002805.878495142</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>9062036.234149843</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>9334357.899366328</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>8391217.806711156</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>8686833.688755983</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>8686833.688755983</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>8686789.688755983</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>8250271.141255983</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>7755360.030355983</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>7755360.030355983</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6866198.994455984</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6655756.81987027</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>7846716.976314962</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>7034331.535364565</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>2688828.013942532</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2688778.013942532</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>3018611.86267646</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-3869560.723616656</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-3592817.467916656</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3571476.784382191</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-3900297.395782748</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-4143160.153571523</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-3848723.893871523</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-3996025.523771523</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-3751876.127488332</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-5401216.901788332</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-2992750.766188332</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-2679952.842625901</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-2644741.469351697</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-2644741.469351697</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-2558081.082951697</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-2783154.022551697</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-3053495.094651697</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-3045876.674851697</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-2855718.840151697</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-2275267.874951697</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-2070776.749329825</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-2115142.843829826</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1973337.131229826</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1510107.244793726</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1182194.690729826</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-1812205.418729826</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-1828843.949729826</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-1917811.074329826</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-1923299.074329826</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-1923299.074329826</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1598245.363529825</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-1342298.356829825</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
